--- a/Perbandingan_metode_ID3_imputasi_&_non_imputasi.xlsx
+++ b/Perbandingan_metode_ID3_imputasi_&_non_imputasi.xlsx
@@ -473,13 +473,13 @@
         <v>74.89</v>
       </c>
       <c r="D2" t="n">
-        <v>67.72</v>
+        <v>71.42</v>
       </c>
       <c r="E2" t="n">
         <v>76.83</v>
       </c>
       <c r="F2" t="n">
-        <v>68.76000000000001</v>
+        <v>72.44</v>
       </c>
     </row>
     <row r="3">
@@ -495,13 +495,13 @@
         <v>63.26</v>
       </c>
       <c r="D3" t="n">
-        <v>58.47</v>
+        <v>57.92</v>
       </c>
       <c r="E3" t="n">
         <v>69.29000000000001</v>
       </c>
       <c r="F3" t="n">
-        <v>64.92</v>
+        <v>62.7</v>
       </c>
     </row>
     <row r="4">
@@ -517,13 +517,13 @@
         <v>67.98999999999999</v>
       </c>
       <c r="D4" t="n">
-        <v>27.68</v>
+        <v>53.85</v>
       </c>
       <c r="E4" t="n">
         <v>65.03</v>
       </c>
       <c r="F4" t="n">
-        <v>24.29</v>
+        <v>49.23</v>
       </c>
     </row>
   </sheetData>
